--- a/Unity_Portfolio/Assets/08.Tables/ConsumableItemTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/ConsumableItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8262F4C-9CCE-4622-9BBF-3AB6225D9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BDAA2-F486-44BF-BE46-6DE9B640EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>201</v>
+        <v>20001</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>202</v>
+        <v>20002</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>203</v>
+        <v>20003</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>204</v>
+        <v>20004</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
